--- a/Runs/Final_PDI1_RLU2/N2a/IV_Validation/Validation_set.xlsx
+++ b/Runs/Final_PDI1_RLU2/N2a/IV_Validation/Validation_set.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>969</v>
+        <v>481</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -509,27 +509,27 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03005928356148733</v>
+        <v>0.01547973467254321</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25364023469183</v>
+        <v>2.13061800116692</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>970</v>
+        <v>5419</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -546,47 +546,47 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03005928356148733</v>
+        <v>0.04372908258619673</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25364023469183</v>
+        <v>2.368985998862328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>404</v>
+        <v>19525</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18PG</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>9.3028</v>
+        <v>9.784000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H4" t="n">
         <v>75</v>
@@ -595,15 +595,15 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03409126909602964</v>
+        <v>0.8884809258550991</v>
       </c>
       <c r="K4" t="n">
-        <v>2.287662128632298</v>
+        <v>9.497002052365326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1937</v>
+        <v>14566</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -620,27 +620,27 @@
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8418442596616336</v>
+        <v>0.9764781998063413</v>
       </c>
       <c r="K5" t="n">
-        <v>9.103481863024864</v>
+        <v>10.23952304996591</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1358</v>
+        <v>19359</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -657,27 +657,27 @@
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="H6" t="n">
         <v>55</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9764781998063413</v>
+        <v>0.8716161479015142</v>
       </c>
       <c r="K6" t="n">
-        <v>10.23952304996591</v>
+        <v>9.354697055992977</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1739</v>
+        <v>17213</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -694,27 +694,27 @@
         <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="H7" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8236621987926208</v>
+        <v>0.9764781998063413</v>
       </c>
       <c r="K7" t="n">
-        <v>8.950061633412135</v>
+        <v>10.23952304996591</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1159</v>
+        <v>17115</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -731,27 +731,27 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="H8" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8495637604375859</v>
+        <v>0.9764781998063413</v>
       </c>
       <c r="K8" t="n">
-        <v>9.16861901057235</v>
+        <v>10.23952304996591</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1163</v>
+        <v>24965</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -768,27 +768,27 @@
         <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8495637604375859</v>
+        <v>0.02657352221973434</v>
       </c>
       <c r="K9" t="n">
-        <v>9.16861901057235</v>
+        <v>2.224227380490118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1816</v>
+        <v>27736</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -805,59 +805,133 @@
         <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
         <v>40</v>
       </c>
       <c r="H10" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I10" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1551851477107829</v>
+        <v>0.003856706240723889</v>
       </c>
       <c r="K10" t="n">
-        <v>3.309452276383586</v>
+        <v>2.032542887259228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3584</v>
+        <v>22557</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DSPC</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
+        <v>9.784000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>50</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.02657352221973434</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.224227380490118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31298</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>150</v>
+      </c>
+      <c r="H12" t="n">
+        <v>45</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9382282290290539</v>
+      </c>
+      <c r="K12" t="n">
+        <v>9.916769796547158</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>53928</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSPC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
         <v>6.12</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E13" t="n">
         <v>8</v>
       </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20</v>
+      </c>
+      <c r="H13" t="n">
+        <v>25</v>
+      </c>
+      <c r="I13" t="n">
         <v>40</v>
       </c>
-      <c r="H11" t="n">
-        <v>45</v>
-      </c>
-      <c r="I11" t="n">
-        <v>85</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.1266823948083718</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.068946047393041</v>
+      <c r="J13" t="n">
+        <v>0.02269806244519374</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.191526250912545</v>
       </c>
     </row>
   </sheetData>
